--- a/Code/Results/Cases/Case_6_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_46/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.96981044859862</v>
+        <v>13.2645465054691</v>
       </c>
       <c r="C2">
-        <v>13.33706006052484</v>
+        <v>6.53666585142241</v>
       </c>
       <c r="D2">
-        <v>3.665871440966828</v>
+        <v>4.617519380681039</v>
       </c>
       <c r="E2">
-        <v>6.739279555009229</v>
+        <v>6.475096896635329</v>
       </c>
       <c r="F2">
-        <v>64.90103148540378</v>
+        <v>66.69143315664583</v>
       </c>
       <c r="G2">
-        <v>2.107088470735208</v>
+        <v>2.155086945019933</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.376182752990414</v>
+        <v>7.504529223127647</v>
       </c>
       <c r="K2">
-        <v>17.29890941924916</v>
+        <v>11.26836243608303</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.53318677730827</v>
+        <v>12.53679098909356</v>
       </c>
       <c r="C3">
-        <v>12.32380733674054</v>
+        <v>6.029483912040448</v>
       </c>
       <c r="D3">
-        <v>3.469683794406848</v>
+        <v>4.392425648888571</v>
       </c>
       <c r="E3">
-        <v>6.5716121340731</v>
+        <v>6.30439219132932</v>
       </c>
       <c r="F3">
-        <v>61.51424916701988</v>
+        <v>63.55604530536925</v>
       </c>
       <c r="G3">
-        <v>2.121647492586654</v>
+        <v>2.166424119420016</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.203624858395139</v>
+        <v>7.342358555509561</v>
       </c>
       <c r="K3">
-        <v>16.00126006216399</v>
+        <v>10.74552200111549</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.72668312308937</v>
+        <v>12.0852735884518</v>
       </c>
       <c r="C4">
-        <v>11.67824933373899</v>
+        <v>5.706516786262716</v>
       </c>
       <c r="D4">
-        <v>3.346993805137362</v>
+        <v>4.250748854875678</v>
       </c>
       <c r="E4">
-        <v>6.476111719687748</v>
+        <v>6.20744639558542</v>
       </c>
       <c r="F4">
-        <v>59.40149279859941</v>
+        <v>61.58974035426383</v>
       </c>
       <c r="G4">
-        <v>2.130714660851957</v>
+        <v>2.173523606624553</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.101775131918292</v>
+        <v>7.245745561053305</v>
       </c>
       <c r="K4">
-        <v>15.20626436195327</v>
+        <v>10.42713882825646</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.39358938045635</v>
+        <v>11.90030761799205</v>
       </c>
       <c r="C5">
-        <v>11.40912040489413</v>
+        <v>5.57194374975389</v>
       </c>
       <c r="D5">
-        <v>3.296386608009677</v>
+        <v>4.192101569915279</v>
       </c>
       <c r="E5">
-        <v>6.439033181871766</v>
+        <v>6.169910998731043</v>
       </c>
       <c r="F5">
-        <v>58.5324172115083</v>
+        <v>60.77858126673439</v>
       </c>
       <c r="G5">
-        <v>2.134447370095989</v>
+        <v>2.176454611199561</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.061274825871733</v>
+        <v>7.207119145097771</v>
       </c>
       <c r="K5">
-        <v>14.93858129708795</v>
+        <v>10.29821357959291</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.33801711004243</v>
+        <v>11.86954267647665</v>
       </c>
       <c r="C6">
-        <v>11.36406166377433</v>
+        <v>5.549417900526544</v>
       </c>
       <c r="D6">
-        <v>3.287945208849743</v>
+        <v>4.182307024091241</v>
       </c>
       <c r="E6">
-        <v>6.432986394707352</v>
+        <v>6.163797004102912</v>
       </c>
       <c r="F6">
-        <v>58.38762945173447</v>
+        <v>60.64330934590774</v>
       </c>
       <c r="G6">
-        <v>2.135069617499321</v>
+        <v>2.176943677508483</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.054609725216182</v>
+        <v>7.200750223862487</v>
       </c>
       <c r="K6">
-        <v>14.89399169880292</v>
+        <v>10.27686010020012</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.72220862845707</v>
+        <v>12.08278268531779</v>
       </c>
       <c r="C7">
-        <v>11.67464449278235</v>
+        <v>5.704713936715397</v>
       </c>
       <c r="D7">
-        <v>3.346313827335377</v>
+        <v>4.249961662608412</v>
       </c>
       <c r="E7">
-        <v>6.475604264933795</v>
+        <v>6.206932213253768</v>
       </c>
       <c r="F7">
-        <v>59.38980449287447</v>
+        <v>61.57884002066626</v>
       </c>
       <c r="G7">
-        <v>2.130764841574671</v>
+        <v>2.17356297778394</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.101224896952589</v>
+        <v>7.245221617829903</v>
       </c>
       <c r="K7">
-        <v>15.20266389332059</v>
+        <v>10.42539655970356</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.47065575836612</v>
+        <v>13.01469333322174</v>
       </c>
       <c r="C8">
-        <v>12.9924343913614</v>
+        <v>6.364148280035831</v>
       </c>
       <c r="D8">
-        <v>3.59865612982101</v>
+        <v>4.540600458277614</v>
       </c>
       <c r="E8">
-        <v>6.679900500863199</v>
+        <v>6.414601325905391</v>
       </c>
       <c r="F8">
-        <v>63.74025651933925</v>
+        <v>65.6191352362694</v>
       </c>
       <c r="G8">
-        <v>2.112085454340539</v>
+        <v>2.158969224985109</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.315815608410942</v>
+        <v>7.447997515498404</v>
       </c>
       <c r="K8">
-        <v>16.85823146592108</v>
+        <v>11.08762173290976</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.9514971713105</v>
+        <v>14.88945681437618</v>
       </c>
       <c r="C9">
-        <v>15.40092061526533</v>
+        <v>7.569148597798385</v>
       </c>
       <c r="D9">
-        <v>4.078582761445332</v>
+        <v>5.085214073819281</v>
       </c>
       <c r="E9">
-        <v>7.141440089623615</v>
+        <v>6.884568097821416</v>
       </c>
       <c r="F9">
-        <v>72.00853095417779</v>
+        <v>73.20255348194797</v>
       </c>
       <c r="G9">
-        <v>2.076179848103212</v>
+        <v>2.131293833075396</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.770754694135369</v>
+        <v>7.869311553163566</v>
       </c>
       <c r="K9">
-        <v>19.924267173063</v>
+        <v>12.75092239084652</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.36669282491362</v>
+        <v>16.41101180059465</v>
       </c>
       <c r="C10">
-        <v>17.08129983719989</v>
+        <v>8.407107085461089</v>
       </c>
       <c r="D10">
-        <v>4.426948261778878</v>
+        <v>5.473541264001997</v>
       </c>
       <c r="E10">
-        <v>7.521030382766004</v>
+        <v>7.268804680725008</v>
       </c>
       <c r="F10">
-        <v>77.94353154803134</v>
+        <v>78.56147642433146</v>
       </c>
       <c r="G10">
-        <v>2.049767465801637</v>
+        <v>2.111291600302077</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.128818237507481</v>
+        <v>8.193918866795135</v>
       </c>
       <c r="K10">
-        <v>22.04514369367545</v>
+        <v>14.07973222231727</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.44076759336373</v>
+        <v>17.08283452927921</v>
       </c>
       <c r="C11">
-        <v>17.83166982274965</v>
+        <v>8.779868104490246</v>
       </c>
       <c r="D11">
-        <v>4.585929988085573</v>
+        <v>5.648633617919311</v>
       </c>
       <c r="E11">
-        <v>7.703618281809639</v>
+        <v>7.538804903781624</v>
       </c>
       <c r="F11">
-        <v>80.62364902878342</v>
+        <v>80.95542695913311</v>
       </c>
       <c r="G11">
-        <v>2.037613635374774</v>
+        <v>2.10220050329212</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.297865577897268</v>
+        <v>8.34514447903492</v>
       </c>
       <c r="K11">
-        <v>22.9874451344077</v>
+        <v>14.66538280233375</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.84461780437661</v>
+        <v>17.33454147259831</v>
       </c>
       <c r="C12">
-        <v>18.11435338340813</v>
+        <v>8.919996567933111</v>
       </c>
       <c r="D12">
-        <v>4.646356106168236</v>
+        <v>5.714811331546561</v>
       </c>
       <c r="E12">
-        <v>7.774315405092763</v>
+        <v>7.655179126339795</v>
       </c>
       <c r="F12">
-        <v>81.63703240237545</v>
+        <v>81.85605422421925</v>
       </c>
       <c r="G12">
-        <v>2.03297783642608</v>
+        <v>2.098752935473148</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.362878339800085</v>
+        <v>8.402957302169231</v>
       </c>
       <c r="K12">
-        <v>23.34166432764189</v>
+        <v>14.88468614609737</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.75775739431514</v>
+        <v>17.28044777051775</v>
       </c>
       <c r="C13">
-        <v>18.05352750030122</v>
+        <v>8.88985985216237</v>
       </c>
       <c r="D13">
-        <v>4.633329595415581</v>
+        <v>5.700562644209998</v>
       </c>
       <c r="E13">
-        <v>7.759017845379567</v>
+        <v>7.630163053634416</v>
       </c>
       <c r="F13">
-        <v>81.4188241197534</v>
+        <v>81.66234257573471</v>
       </c>
       <c r="G13">
-        <v>2.0339779674814</v>
+        <v>2.099495758704487</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.348830153239749</v>
+        <v>8.390481258353006</v>
       </c>
       <c r="K13">
-        <v>23.26548166060213</v>
+        <v>14.83756092959192</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.47404598921407</v>
+        <v>17.10359521932087</v>
       </c>
       <c r="C14">
-        <v>17.85495214386809</v>
+        <v>8.791415995451452</v>
       </c>
       <c r="D14">
-        <v>4.590895833311781</v>
+        <v>5.654080003489069</v>
       </c>
       <c r="E14">
-        <v>7.709402522155501</v>
+        <v>7.548400566396535</v>
       </c>
       <c r="F14">
-        <v>80.70704205456964</v>
+        <v>81.02963761874277</v>
       </c>
       <c r="G14">
-        <v>2.037233001498984</v>
+        <v>2.101917007541391</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.303193455664132</v>
+        <v>8.349889567894289</v>
       </c>
       <c r="K14">
-        <v>23.01663524141744</v>
+        <v>14.68347303223249</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.29991171725788</v>
+        <v>16.99492409178506</v>
       </c>
       <c r="C15">
-        <v>17.73314661073898</v>
+        <v>8.730988402333537</v>
       </c>
       <c r="D15">
-        <v>4.5649379952013</v>
+        <v>5.625594824761103</v>
       </c>
       <c r="E15">
-        <v>7.679218759473619</v>
+        <v>7.498177952227279</v>
       </c>
       <c r="F15">
-        <v>80.27090355913339</v>
+        <v>80.64133284081696</v>
       </c>
       <c r="G15">
-        <v>2.039222008861461</v>
+        <v>2.103399249020509</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.275373522012112</v>
+        <v>8.325098466434754</v>
       </c>
       <c r="K15">
-        <v>22.86389040049287</v>
+        <v>14.5887757555049</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.29605758712388</v>
+        <v>16.36671573976765</v>
       </c>
       <c r="C16">
-        <v>17.03202361835721</v>
+        <v>8.382591697421578</v>
       </c>
       <c r="D16">
-        <v>4.416580786464061</v>
+        <v>5.462075239263726</v>
       </c>
       <c r="E16">
-        <v>7.509307484273759</v>
+        <v>7.256987428983716</v>
       </c>
       <c r="F16">
-        <v>77.76808575404721</v>
+        <v>78.40417339576416</v>
       </c>
       <c r="G16">
-        <v>2.050557863155599</v>
+        <v>2.111885382473725</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.117903483213178</v>
+        <v>8.184110277056588</v>
       </c>
       <c r="K16">
-        <v>21.98316009785793</v>
+        <v>14.04109923368937</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.67434954472526</v>
+        <v>15.97626876174338</v>
       </c>
       <c r="C17">
-        <v>16.59867030478413</v>
+        <v>8.166824098674882</v>
       </c>
       <c r="D17">
-        <v>4.325795927981855</v>
+        <v>5.361427030090604</v>
       </c>
       <c r="E17">
-        <v>7.407691341765436</v>
+        <v>7.154410525863283</v>
       </c>
       <c r="F17">
-        <v>76.22844323905188</v>
+        <v>77.02074148721499</v>
       </c>
       <c r="G17">
-        <v>2.057467717341874</v>
+        <v>2.1170893129101</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.022949427187188</v>
+        <v>8.098551642991508</v>
       </c>
       <c r="K17">
-        <v>21.43750668965597</v>
+        <v>13.70045326679475</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.31439610509502</v>
+        <v>15.749763349716</v>
       </c>
       <c r="C18">
-        <v>16.34805596702286</v>
+        <v>8.041914033752365</v>
       </c>
       <c r="D18">
-        <v>4.273616103552391</v>
+        <v>5.303383306487229</v>
       </c>
       <c r="E18">
-        <v>7.350167453023519</v>
+        <v>7.09623479116782</v>
       </c>
       <c r="F18">
-        <v>75.340921248786</v>
+        <v>76.22086596992609</v>
       </c>
       <c r="G18">
-        <v>2.061429966809479</v>
+        <v>2.12008364382385</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>7.968906091300859</v>
+        <v>8.049672923890828</v>
       </c>
       <c r="K18">
-        <v>21.12150006586274</v>
+        <v>13.50273407407552</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.19209823661223</v>
+        <v>15.67273469792321</v>
       </c>
       <c r="C19">
-        <v>16.26295342601428</v>
+        <v>7.99947802900562</v>
       </c>
       <c r="D19">
-        <v>4.255951228714724</v>
+        <v>5.283701579295328</v>
       </c>
       <c r="E19">
-        <v>7.33084604105805</v>
+        <v>7.076677918026333</v>
       </c>
       <c r="F19">
-        <v>75.04005124567435</v>
+        <v>75.94931793974115</v>
       </c>
       <c r="G19">
-        <v>2.062769805098982</v>
+        <v>2.121097846186543</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.950703214563023</v>
+        <v>8.033179635241741</v>
       </c>
       <c r="K19">
-        <v>21.01411733620033</v>
+        <v>13.43547583369652</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.74077169004387</v>
+        <v>16.01803081463703</v>
       </c>
       <c r="C20">
-        <v>16.64493870492271</v>
+        <v>8.189875132739008</v>
       </c>
       <c r="D20">
-        <v>4.335455290304951</v>
+        <v>5.372156430642293</v>
       </c>
       <c r="E20">
-        <v>7.418412205778968</v>
+        <v>7.165244491046037</v>
       </c>
       <c r="F20">
-        <v>76.39253544597784</v>
+        <v>77.16843865015151</v>
       </c>
       <c r="G20">
-        <v>2.056733494938211</v>
+        <v>2.11653526639023</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.032997562905154</v>
+        <v>8.107624893833002</v>
       </c>
       <c r="K20">
-        <v>21.49581195882036</v>
+        <v>13.73689911062742</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.55745105233976</v>
+        <v>17.15561228678484</v>
       </c>
       <c r="C21">
-        <v>17.91331330788742</v>
+        <v>8.820357621185854</v>
       </c>
       <c r="D21">
-        <v>4.60335224386622</v>
+        <v>5.667735638659112</v>
       </c>
       <c r="E21">
-        <v>7.723932304286634</v>
+        <v>7.572445254775846</v>
       </c>
       <c r="F21">
-        <v>80.91613829170483</v>
+        <v>81.21563471477614</v>
       </c>
       <c r="G21">
-        <v>2.036277946236597</v>
+        <v>2.101206016004501</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.316569917103696</v>
+        <v>8.361797145987211</v>
       </c>
       <c r="K21">
-        <v>23.08979269648328</v>
+        <v>14.72879734361143</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.72839414838588</v>
+        <v>17.8835011338052</v>
       </c>
       <c r="C22">
-        <v>18.73407609397887</v>
+        <v>9.226530821413748</v>
       </c>
       <c r="D22">
-        <v>4.779833837863821</v>
+        <v>5.860237006666345</v>
       </c>
       <c r="E22">
-        <v>7.932763248570715</v>
+        <v>7.9092553903559</v>
       </c>
       <c r="F22">
-        <v>83.86465506093157</v>
+        <v>83.82658385551949</v>
       </c>
       <c r="G22">
-        <v>2.022706041853781</v>
+        <v>2.091155009044345</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.507795893210766</v>
+        <v>8.531127223042228</v>
       </c>
       <c r="K22">
-        <v>24.11672514713753</v>
+        <v>15.36280068878902</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.10467946784366</v>
+        <v>17.49635248610005</v>
       </c>
       <c r="C23">
-        <v>18.29655410783108</v>
+        <v>9.010217699545587</v>
       </c>
       <c r="D23">
-        <v>4.685456180883604</v>
+        <v>5.757520603780442</v>
       </c>
       <c r="E23">
-        <v>7.82041436960964</v>
+        <v>7.730031233421247</v>
       </c>
       <c r="F23">
-        <v>82.2911496051012</v>
+        <v>82.43601386055042</v>
       </c>
       <c r="G23">
-        <v>2.029973374396856</v>
+        <v>2.096524650179521</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.405149795608397</v>
+        <v>8.440443574771393</v>
       </c>
       <c r="K23">
-        <v>23.56974782724632</v>
+        <v>15.02563792867141</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.71075015127651</v>
+        <v>15.9991565370961</v>
       </c>
       <c r="C24">
-        <v>16.6240253915784</v>
+        <v>8.179456459922212</v>
       </c>
       <c r="D24">
-        <v>4.33108826102003</v>
+        <v>5.367306235673763</v>
       </c>
       <c r="E24">
-        <v>7.41356251967995</v>
+        <v>7.160343975702006</v>
       </c>
       <c r="F24">
-        <v>76.31835680686588</v>
+        <v>77.10167887557395</v>
       </c>
       <c r="G24">
-        <v>2.057065468052067</v>
+        <v>2.116785742516094</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.028453104855467</v>
+        <v>8.103521913766469</v>
       </c>
       <c r="K24">
-        <v>21.46945936585128</v>
+        <v>13.72042780949423</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.03657578819611</v>
+        <v>14.32147830123879</v>
       </c>
       <c r="C25">
-        <v>14.76654011965174</v>
+        <v>7.252020759419504</v>
       </c>
       <c r="D25">
-        <v>3.949904086625704</v>
+        <v>4.940251792041205</v>
       </c>
       <c r="E25">
-        <v>7.009765720405463</v>
+        <v>6.750660582100217</v>
       </c>
       <c r="F25">
-        <v>69.79876600725353</v>
+        <v>71.18856475173891</v>
       </c>
       <c r="G25">
-        <v>2.085860217889946</v>
+        <v>2.13870326440304</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.643765337367864</v>
+        <v>7.752755980062935</v>
       </c>
       <c r="K25">
-        <v>19.11973811546733</v>
+        <v>12.24346815476961</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,49 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.2645465054691</v>
+        <v>13.05345997627096</v>
       </c>
       <c r="C2">
-        <v>6.53666585142241</v>
+        <v>9.089474669178079</v>
       </c>
       <c r="D2">
-        <v>4.617519380681039</v>
+        <v>6.45856230838978</v>
       </c>
       <c r="E2">
-        <v>6.475096896635329</v>
+        <v>10.5202530758435</v>
       </c>
       <c r="F2">
-        <v>66.69143315664583</v>
+        <v>28.74969442642723</v>
       </c>
       <c r="G2">
-        <v>2.155086945019933</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>35.31371094812567</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.427229563189894</v>
       </c>
       <c r="J2">
-        <v>7.504529223127647</v>
+        <v>11.99560941601734</v>
       </c>
       <c r="K2">
-        <v>11.26836243608303</v>
+        <v>18.41036271444158</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.552008679665628</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.16056983283646</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,46 +465,49 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.53679098909356</v>
+        <v>12.19726608026692</v>
       </c>
       <c r="C3">
-        <v>6.029483912040448</v>
+        <v>8.455634869343974</v>
       </c>
       <c r="D3">
-        <v>4.392425648888571</v>
+        <v>6.127984981512342</v>
       </c>
       <c r="E3">
-        <v>6.30439219132932</v>
+        <v>10.06392445767807</v>
       </c>
       <c r="F3">
-        <v>63.55604530536925</v>
+        <v>28.214654399368</v>
       </c>
       <c r="G3">
-        <v>2.166424119420016</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
+        <v>34.63366062528551</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.646436637190352</v>
       </c>
       <c r="J3">
-        <v>7.342358555509561</v>
+        <v>11.97068487611346</v>
       </c>
       <c r="K3">
-        <v>10.74552200111549</v>
+        <v>18.38835329532465</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.444304526274449</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.3949007615785</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,46 +515,49 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.0852735884518</v>
+        <v>11.63969765726365</v>
       </c>
       <c r="C4">
-        <v>5.706516786262716</v>
+        <v>8.049758299353211</v>
       </c>
       <c r="D4">
-        <v>4.250748854875678</v>
+        <v>5.920440603468723</v>
       </c>
       <c r="E4">
-        <v>6.20744639558542</v>
+        <v>9.780118856289135</v>
       </c>
       <c r="F4">
-        <v>61.58974035426383</v>
+        <v>27.89446024234222</v>
       </c>
       <c r="G4">
-        <v>2.173523606624553</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
+        <v>34.22547212753344</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.786135605931687</v>
       </c>
       <c r="J4">
-        <v>7.245745561053305</v>
+        <v>11.95949476217845</v>
       </c>
       <c r="K4">
-        <v>10.42713882825646</v>
+        <v>18.37949617532267</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.380678106575782</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.89921342612834</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,46 +565,49 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.90030761799205</v>
+        <v>11.40215358720907</v>
       </c>
       <c r="C5">
-        <v>5.57194374975389</v>
+        <v>7.89035871198209</v>
       </c>
       <c r="D5">
-        <v>4.192101569915279</v>
+        <v>5.839051920363405</v>
       </c>
       <c r="E5">
-        <v>6.169910998731043</v>
+        <v>9.665581633461532</v>
       </c>
       <c r="F5">
-        <v>60.77858126673439</v>
+        <v>27.7513433143022</v>
       </c>
       <c r="G5">
-        <v>2.176454611199561</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
+        <v>34.03550941301312</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.847012332568369</v>
       </c>
       <c r="J5">
-        <v>7.207119145097771</v>
+        <v>11.95111867430826</v>
       </c>
       <c r="K5">
-        <v>10.29821357959291</v>
+        <v>18.36628935863029</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.355044959296929</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>10.69251196228415</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,46 +615,49 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.86954267647665</v>
+        <v>11.35942829930286</v>
       </c>
       <c r="C6">
-        <v>5.549417900526544</v>
+        <v>7.876138334220872</v>
       </c>
       <c r="D6">
-        <v>4.182307024091241</v>
+        <v>5.830646882362359</v>
       </c>
       <c r="E6">
-        <v>6.163797004102912</v>
+        <v>9.648792765404094</v>
       </c>
       <c r="F6">
-        <v>60.64330934590774</v>
+        <v>27.70960966763426</v>
       </c>
       <c r="G6">
-        <v>2.176943677508483</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
+        <v>33.97225311971564</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.86057804146117</v>
       </c>
       <c r="J6">
-        <v>7.200750223862487</v>
+        <v>11.9438973721879</v>
       </c>
       <c r="K6">
-        <v>10.27686010020012</v>
+        <v>18.35106072927072</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.350401881025128</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>10.65991104117407</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,46 +665,49 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.08278268531779</v>
+        <v>11.62907254905455</v>
       </c>
       <c r="C7">
-        <v>5.704713936715397</v>
+        <v>8.08086553998276</v>
       </c>
       <c r="D7">
-        <v>4.249961662608412</v>
+        <v>5.933189613666182</v>
       </c>
       <c r="E7">
-        <v>6.206932213253768</v>
+        <v>9.784670571527911</v>
       </c>
       <c r="F7">
-        <v>61.57884002066626</v>
+        <v>27.84340485092807</v>
       </c>
       <c r="G7">
-        <v>2.17356297778394</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
+        <v>34.13644318120901</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.795922684373899</v>
       </c>
       <c r="J7">
-        <v>7.245221617829903</v>
+        <v>11.94332823008148</v>
       </c>
       <c r="K7">
-        <v>10.42539655970356</v>
+        <v>18.34357895085713</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.379171703028859</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.90208600031718</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,46 +715,49 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.01469333322174</v>
+        <v>12.75571447537122</v>
       </c>
       <c r="C8">
-        <v>6.364148280035831</v>
+        <v>8.914613380721557</v>
       </c>
       <c r="D8">
-        <v>4.540600458277614</v>
+        <v>6.36271399244792</v>
       </c>
       <c r="E8">
-        <v>6.414601325905391</v>
+        <v>10.37135586301065</v>
       </c>
       <c r="F8">
-        <v>65.6191352362694</v>
+        <v>28.50014986132724</v>
       </c>
       <c r="G8">
-        <v>2.158969224985109</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
+        <v>34.9658075463885</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.513313493804338</v>
       </c>
       <c r="J8">
-        <v>7.447997515498404</v>
+        <v>11.96510067765637</v>
       </c>
       <c r="K8">
-        <v>11.08762173290976</v>
+        <v>18.35482577058953</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.512853748478276</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.9087838179557</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,46 +765,49 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.88945681437618</v>
+        <v>14.72580426909933</v>
       </c>
       <c r="C9">
-        <v>7.569148597798385</v>
+        <v>10.36639754211669</v>
       </c>
       <c r="D9">
-        <v>5.085214073819281</v>
+        <v>7.142279282598264</v>
       </c>
       <c r="E9">
-        <v>6.884568097821416</v>
+        <v>11.47667936307701</v>
       </c>
       <c r="F9">
-        <v>73.20255348194797</v>
+        <v>29.93584739995729</v>
       </c>
       <c r="G9">
-        <v>2.131293833075396</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
+        <v>36.8126665968679</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.983829556539755</v>
       </c>
       <c r="J9">
-        <v>7.869311553163566</v>
+        <v>12.07032084025736</v>
       </c>
       <c r="K9">
-        <v>12.75092239084652</v>
+        <v>18.47933851525189</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.79627690964662</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.67158593277715</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,46 +815,49 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.41101180059465</v>
+        <v>16.01968635386723</v>
       </c>
       <c r="C10">
-        <v>8.407107085461089</v>
+        <v>11.36836350599517</v>
       </c>
       <c r="D10">
-        <v>5.473541264001997</v>
+        <v>7.691929977456416</v>
       </c>
       <c r="E10">
-        <v>7.268804680725008</v>
+        <v>12.26274967311976</v>
       </c>
       <c r="F10">
-        <v>78.56147642433146</v>
+        <v>31.00232928243093</v>
       </c>
       <c r="G10">
-        <v>2.111291600302077</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
+        <v>38.16901573364835</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.623704914389467</v>
       </c>
       <c r="J10">
-        <v>8.193918866795135</v>
+        <v>12.16284870115832</v>
       </c>
       <c r="K10">
-        <v>14.07973222231727</v>
+        <v>18.58041892703464</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.014849840468895</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.8469739126638</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,46 +865,49 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.08283452927921</v>
+        <v>16.56738608833578</v>
       </c>
       <c r="C11">
-        <v>8.779868104490246</v>
+        <v>11.84541034113606</v>
       </c>
       <c r="D11">
-        <v>5.648633617919311</v>
+        <v>7.951871212914028</v>
       </c>
       <c r="E11">
-        <v>7.538804903781624</v>
+        <v>12.62058343044287</v>
       </c>
       <c r="F11">
-        <v>80.95542695913311</v>
+        <v>31.42408946434892</v>
       </c>
       <c r="G11">
-        <v>2.10220050329212</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
+        <v>38.67102167839772</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.520231473813901</v>
       </c>
       <c r="J11">
-        <v>8.34514447903492</v>
+        <v>12.18546179667411</v>
       </c>
       <c r="K11">
-        <v>14.66538280233375</v>
+        <v>18.5769105661621</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.114747685138917</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.36226813575559</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,46 +915,49 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.33454147259831</v>
+        <v>16.77512675112938</v>
       </c>
       <c r="C12">
-        <v>8.919996567933111</v>
+        <v>12.00281543353637</v>
       </c>
       <c r="D12">
-        <v>5.714811331546561</v>
+        <v>8.039993527548472</v>
       </c>
       <c r="E12">
-        <v>7.655179126339795</v>
+        <v>12.75079846810755</v>
       </c>
       <c r="F12">
-        <v>81.85605422421925</v>
+        <v>31.62273995820858</v>
       </c>
       <c r="G12">
-        <v>2.098752935473148</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
+        <v>38.92889640821664</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.579369158054267</v>
       </c>
       <c r="J12">
-        <v>8.402957302169231</v>
+        <v>12.2082126911392</v>
       </c>
       <c r="K12">
-        <v>14.88468614609737</v>
+        <v>18.60657159947309</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.153810383295325</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>15.54998596401603</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,46 +965,49 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.28044777051775</v>
+        <v>16.73154516205759</v>
       </c>
       <c r="C13">
-        <v>8.88985985216237</v>
+        <v>11.96494264949239</v>
       </c>
       <c r="D13">
-        <v>5.700562644209998</v>
+        <v>8.01924695141912</v>
       </c>
       <c r="E13">
-        <v>7.630163053634416</v>
+        <v>12.72198999384567</v>
       </c>
       <c r="F13">
-        <v>81.66234257573471</v>
+        <v>31.58744493923181</v>
       </c>
       <c r="G13">
-        <v>2.099495758704487</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+        <v>38.88650297686038</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.56590236373868</v>
       </c>
       <c r="J13">
-        <v>8.390481258353006</v>
+        <v>12.20594613877842</v>
       </c>
       <c r="K13">
-        <v>14.83756092959192</v>
+        <v>18.60613566543721</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.145569680092755</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>15.5089996594685</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,46 +1015,49 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.10359521932087</v>
+        <v>16.58497775770894</v>
       </c>
       <c r="C14">
-        <v>8.791415995451452</v>
+        <v>11.85665950076828</v>
       </c>
       <c r="D14">
-        <v>5.654080003489069</v>
+        <v>7.958365196462634</v>
       </c>
       <c r="E14">
-        <v>7.548400566396535</v>
+        <v>12.63097015561786</v>
       </c>
       <c r="F14">
-        <v>81.02963761874277</v>
+        <v>31.44362656142287</v>
       </c>
       <c r="G14">
-        <v>2.101917007541391</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
+        <v>38.69784572039002</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.524771958849531</v>
       </c>
       <c r="J14">
-        <v>8.349889567894289</v>
+        <v>12.18845313879173</v>
       </c>
       <c r="K14">
-        <v>14.68347303223249</v>
+        <v>18.5818814759482</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.118034411237381</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>15.37747655116801</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,46 +1065,49 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.99492409178506</v>
+        <v>16.49269619566678</v>
       </c>
       <c r="C15">
-        <v>8.730988402333537</v>
+        <v>11.79820264765503</v>
       </c>
       <c r="D15">
-        <v>5.625594824761103</v>
+        <v>7.924566323233667</v>
       </c>
       <c r="E15">
-        <v>7.498177952227279</v>
+        <v>12.57669988529909</v>
       </c>
       <c r="F15">
-        <v>80.64133284081696</v>
+        <v>31.34069853916951</v>
       </c>
       <c r="G15">
-        <v>2.103399249020509</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
+        <v>38.55621420420526</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.508656471514801</v>
       </c>
       <c r="J15">
-        <v>8.325098466434754</v>
+        <v>12.17257153540818</v>
       </c>
       <c r="K15">
-        <v>14.5887757555049</v>
+        <v>18.55532017131555</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.100839941247185</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>15.29787859182624</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,46 +1115,49 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.36671573976765</v>
+        <v>15.96677766673098</v>
       </c>
       <c r="C16">
-        <v>8.382591697421578</v>
+        <v>11.40743979516217</v>
       </c>
       <c r="D16">
-        <v>5.462075239263726</v>
+        <v>7.706047551966404</v>
       </c>
       <c r="E16">
-        <v>7.256987428983716</v>
+        <v>12.25323982813776</v>
       </c>
       <c r="F16">
-        <v>78.40417339576416</v>
+        <v>30.84736318560629</v>
       </c>
       <c r="G16">
-        <v>2.111885382473725</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
+        <v>37.91265340235849</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.663946587021187</v>
       </c>
       <c r="J16">
-        <v>8.184110277056588</v>
+        <v>12.11680262276681</v>
       </c>
       <c r="K16">
-        <v>14.04109923368937</v>
+        <v>18.48056432308262</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.005243998393963</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.82523926125504</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,46 +1165,49 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.97626876174338</v>
+        <v>15.6359529362539</v>
       </c>
       <c r="C17">
-        <v>8.166824098674882</v>
+        <v>11.16372305620383</v>
       </c>
       <c r="D17">
-        <v>5.361427030090604</v>
+        <v>7.570236316602785</v>
       </c>
       <c r="E17">
-        <v>7.154410525863283</v>
+        <v>12.05289515820445</v>
       </c>
       <c r="F17">
-        <v>77.02074148721499</v>
+        <v>30.54660036661915</v>
       </c>
       <c r="G17">
-        <v>2.1170893129101</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
+        <v>37.52015620503769</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.760559167543538</v>
       </c>
       <c r="J17">
-        <v>8.098551642991508</v>
+        <v>12.08417186726909</v>
       </c>
       <c r="K17">
-        <v>13.70045326679475</v>
+        <v>18.4367973918792</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.947158827542466</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.52865638770331</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,46 +1215,49 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.749763349716</v>
+        <v>15.44777867660717</v>
       </c>
       <c r="C18">
-        <v>8.041914033752365</v>
+        <v>10.99992323679915</v>
       </c>
       <c r="D18">
-        <v>5.303383306487229</v>
+        <v>7.481740853092887</v>
       </c>
       <c r="E18">
-        <v>7.09623479116782</v>
+        <v>11.9326100898272</v>
       </c>
       <c r="F18">
-        <v>76.22086596992609</v>
+        <v>30.41354174263836</v>
       </c>
       <c r="G18">
-        <v>2.12008364382385</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
+        <v>37.36410286349311</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.806591701969935</v>
       </c>
       <c r="J18">
-        <v>8.049672923890828</v>
+        <v>12.07956605583461</v>
       </c>
       <c r="K18">
-        <v>13.50273407407552</v>
+        <v>18.44280109648999</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.914915496619903</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.35172322787548</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,46 +1265,49 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.67273469792321</v>
+        <v>15.37959354779981</v>
       </c>
       <c r="C19">
-        <v>7.99947802900562</v>
+        <v>10.96123696802043</v>
       </c>
       <c r="D19">
-        <v>5.283701579295328</v>
+        <v>7.459171473846718</v>
       </c>
       <c r="E19">
-        <v>7.076677918026333</v>
+        <v>11.895134154368</v>
       </c>
       <c r="F19">
-        <v>75.94931793974115</v>
+        <v>30.33840345547126</v>
       </c>
       <c r="G19">
-        <v>2.121097846186543</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
+        <v>37.25839742967093</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.82993092515926</v>
       </c>
       <c r="J19">
-        <v>8.033179635241741</v>
+        <v>12.06762103234935</v>
       </c>
       <c r="K19">
-        <v>13.43547583369652</v>
+        <v>18.42149380034963</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.903298793849108</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.29439329685749</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,46 +1315,49 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.01803081463703</v>
+        <v>15.67188084391032</v>
       </c>
       <c r="C20">
-        <v>8.189875132739008</v>
+        <v>11.18810632743624</v>
       </c>
       <c r="D20">
-        <v>5.372156430642293</v>
+        <v>7.584003431681944</v>
       </c>
       <c r="E20">
-        <v>7.165244491046037</v>
+        <v>12.0739538255466</v>
       </c>
       <c r="F20">
-        <v>77.16843865015151</v>
+        <v>30.58160226146881</v>
       </c>
       <c r="G20">
-        <v>2.11653526639023</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
+        <v>37.56721498525894</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.749419335911942</v>
       </c>
       <c r="J20">
-        <v>8.107624893833002</v>
+        <v>12.0886506749403</v>
       </c>
       <c r="K20">
-        <v>13.73689911062742</v>
+        <v>18.44376158294554</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.95339509124283</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.56017927991439</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,46 +1365,49 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.15561228678484</v>
+        <v>16.62276516714032</v>
       </c>
       <c r="C21">
-        <v>8.820357621185854</v>
+        <v>11.91147941071767</v>
       </c>
       <c r="D21">
-        <v>5.667735638659112</v>
+        <v>7.986487894761971</v>
       </c>
       <c r="E21">
-        <v>7.572445254775846</v>
+        <v>12.66232409893971</v>
       </c>
       <c r="F21">
-        <v>81.21563471477614</v>
+        <v>31.44353864828966</v>
       </c>
       <c r="G21">
-        <v>2.101206016004501</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
+        <v>38.67908405974775</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.5414302188355</v>
       </c>
       <c r="J21">
-        <v>8.361797145987211</v>
+        <v>12.17858110054904</v>
       </c>
       <c r="K21">
-        <v>14.72879734361143</v>
+        <v>18.55533268998895</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.125072775697467</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.42027691549012</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,46 +1415,49 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.8835011338052</v>
+        <v>17.22446013567544</v>
       </c>
       <c r="C22">
-        <v>9.226530821413748</v>
+        <v>12.34222632202963</v>
       </c>
       <c r="D22">
-        <v>5.860237006666345</v>
+        <v>8.230698919479169</v>
       </c>
       <c r="E22">
-        <v>7.9092553903559</v>
+        <v>13.03453689285627</v>
       </c>
       <c r="F22">
-        <v>83.82658385551949</v>
+        <v>32.06641710263508</v>
       </c>
       <c r="G22">
-        <v>2.091155009044345</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
+        <v>39.50704393357801</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.708601958068701</v>
       </c>
       <c r="J22">
-        <v>8.531127223042228</v>
+        <v>12.26171114006416</v>
       </c>
       <c r="K22">
-        <v>15.36280068878902</v>
+        <v>18.67804464789354</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.240374632060556</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.95568320089857</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,46 +1465,49 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.49635248610005</v>
+        <v>16.91217474266175</v>
       </c>
       <c r="C23">
-        <v>9.010217699545587</v>
+        <v>12.08613590760958</v>
       </c>
       <c r="D23">
-        <v>5.757520603780442</v>
+        <v>8.088715109683395</v>
       </c>
       <c r="E23">
-        <v>7.730031233421247</v>
+        <v>12.83101482162962</v>
       </c>
       <c r="F23">
-        <v>82.43601386055042</v>
+        <v>31.78417893509077</v>
       </c>
       <c r="G23">
-        <v>2.096524650179521</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
+        <v>39.15338088221532</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.614543201160425</v>
       </c>
       <c r="J23">
-        <v>8.440443574771393</v>
+        <v>12.23487353469685</v>
       </c>
       <c r="K23">
-        <v>15.02563792867141</v>
+        <v>18.65238779384185</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.17992759081557</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.66703242113288</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,46 +1515,49 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.9991565370961</v>
+        <v>15.66639436992977</v>
       </c>
       <c r="C24">
-        <v>8.179456459922212</v>
+        <v>11.13086781049535</v>
       </c>
       <c r="D24">
-        <v>5.367306235673763</v>
+        <v>7.557385996285833</v>
       </c>
       <c r="E24">
-        <v>7.160343975702006</v>
+        <v>12.05528356208237</v>
       </c>
       <c r="F24">
-        <v>77.10167887557395</v>
+        <v>30.64829495083211</v>
       </c>
       <c r="G24">
-        <v>2.116785742516094</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
+        <v>37.69073565995821</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.733991502001271</v>
       </c>
       <c r="J24">
-        <v>8.103521913766469</v>
+        <v>12.11534820567041</v>
       </c>
       <c r="K24">
-        <v>13.72042780949423</v>
+        <v>18.50496434288862</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.952588465225418</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.53778992572026</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,51 +1565,60 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.32147830123879</v>
+        <v>14.20819930422888</v>
       </c>
       <c r="C25">
-        <v>7.252020759419504</v>
+        <v>10.03651386556521</v>
       </c>
       <c r="D25">
-        <v>4.940251792041205</v>
+        <v>6.957542748802149</v>
       </c>
       <c r="E25">
-        <v>6.750660582100217</v>
+        <v>11.1917833045823</v>
       </c>
       <c r="F25">
-        <v>71.18856475173891</v>
+        <v>29.45791909247379</v>
       </c>
       <c r="G25">
-        <v>2.13870326440304</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
+        <v>36.15960872081925</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.139938988734929</v>
       </c>
       <c r="J25">
-        <v>7.752755980062935</v>
+        <v>12.00966034387272</v>
       </c>
       <c r="K25">
-        <v>12.24346815476961</v>
+        <v>18.3778164207088</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.715623956356147</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.22480729982397</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_46/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_6_46/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,49 +421,55 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.05345997627096</v>
+        <v>12.99898759827263</v>
       </c>
       <c r="C2">
-        <v>9.089474669178079</v>
+        <v>9.768219038621881</v>
       </c>
       <c r="D2">
-        <v>6.45856230838978</v>
+        <v>6.83960901574203</v>
       </c>
       <c r="E2">
-        <v>10.5202530758435</v>
+        <v>10.6974002939457</v>
       </c>
       <c r="F2">
-        <v>28.74969442642723</v>
+        <v>27.152950330056</v>
       </c>
       <c r="G2">
-        <v>35.31371094812567</v>
+        <v>32.28194256075131</v>
       </c>
       <c r="I2">
-        <v>3.427229563189894</v>
+        <v>3.223509313340165</v>
       </c>
       <c r="J2">
-        <v>11.99560941601734</v>
+        <v>11.56888253263611</v>
       </c>
       <c r="K2">
-        <v>18.41036271444158</v>
+        <v>17.01203557206387</v>
       </c>
       <c r="L2">
-        <v>6.552008679665628</v>
+        <v>13.79727150129592</v>
       </c>
       <c r="M2">
-        <v>12.16056983283646</v>
+        <v>11.40687903664157</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.50856575855855</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.35163546992599</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -471,49 +477,55 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.19726608026692</v>
+        <v>12.17958507841527</v>
       </c>
       <c r="C3">
-        <v>8.455634869343974</v>
+        <v>9.036401133644208</v>
       </c>
       <c r="D3">
-        <v>6.127984981512342</v>
+        <v>6.472050249448197</v>
       </c>
       <c r="E3">
-        <v>10.06392445767807</v>
+        <v>10.22371768849647</v>
       </c>
       <c r="F3">
-        <v>28.214654399368</v>
+        <v>26.75612977773408</v>
       </c>
       <c r="G3">
-        <v>34.63366062528551</v>
+        <v>31.91784005626445</v>
       </c>
       <c r="I3">
-        <v>3.646436637190352</v>
+        <v>3.412088136228953</v>
       </c>
       <c r="J3">
-        <v>11.97068487611346</v>
+        <v>11.53598212501344</v>
       </c>
       <c r="K3">
-        <v>18.38835329532465</v>
+        <v>17.08637412394329</v>
       </c>
       <c r="L3">
-        <v>6.444304526274449</v>
+        <v>13.92180996093743</v>
       </c>
       <c r="M3">
-        <v>11.3949007615785</v>
+        <v>11.4127888678462</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.403021692939951</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>11.57556891507796</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -521,49 +533,55 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.63969765726365</v>
+        <v>11.64624648813974</v>
       </c>
       <c r="C4">
-        <v>8.049758299353211</v>
+        <v>8.566479116024198</v>
       </c>
       <c r="D4">
-        <v>5.920440603468723</v>
+        <v>6.240845690075489</v>
       </c>
       <c r="E4">
-        <v>9.780118856289135</v>
+        <v>9.928672810062212</v>
       </c>
       <c r="F4">
-        <v>27.89446024234222</v>
+        <v>26.52010118982081</v>
       </c>
       <c r="G4">
-        <v>34.22547212753344</v>
+        <v>31.70929830889729</v>
       </c>
       <c r="I4">
-        <v>3.786135605931687</v>
+        <v>3.532654331321678</v>
       </c>
       <c r="J4">
-        <v>11.95949476217845</v>
+        <v>11.51677144263507</v>
       </c>
       <c r="K4">
-        <v>18.37949617532267</v>
+        <v>17.13499759305803</v>
       </c>
       <c r="L4">
-        <v>6.380678106575782</v>
+        <v>13.99681158916515</v>
       </c>
       <c r="M4">
-        <v>10.89921342612834</v>
+        <v>11.43630719139342</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.340586617095759</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.07301787599699</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -571,49 +589,55 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.40215358720907</v>
+        <v>11.41919785806338</v>
       </c>
       <c r="C5">
-        <v>7.89035871198209</v>
+        <v>8.379568963049365</v>
       </c>
       <c r="D5">
-        <v>5.839051920363405</v>
+        <v>6.14925603257757</v>
       </c>
       <c r="E5">
-        <v>9.665581633461532</v>
+        <v>9.809276676014449</v>
       </c>
       <c r="F5">
-        <v>27.7513433143022</v>
+        <v>26.41237134834917</v>
       </c>
       <c r="G5">
-        <v>34.03550941301312</v>
+        <v>31.60450125081641</v>
       </c>
       <c r="I5">
-        <v>3.847012332568369</v>
+        <v>3.58607511162484</v>
       </c>
       <c r="J5">
-        <v>11.95111867430826</v>
+        <v>11.50477611793061</v>
       </c>
       <c r="K5">
-        <v>18.36628935863029</v>
+        <v>17.14620788761288</v>
       </c>
       <c r="L5">
-        <v>6.355044959296929</v>
+        <v>14.01868851877433</v>
       </c>
       <c r="M5">
-        <v>10.69251196228415</v>
+        <v>11.44507534569784</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.315433514648065</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.86328630319108</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -621,49 +645,55 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.35942829930286</v>
+        <v>11.37846747036991</v>
       </c>
       <c r="C6">
-        <v>7.876138334220872</v>
+        <v>8.360181160598085</v>
       </c>
       <c r="D6">
-        <v>5.830646882362359</v>
+        <v>6.138724928241849</v>
       </c>
       <c r="E6">
-        <v>9.648792765404094</v>
+        <v>9.791493410486696</v>
       </c>
       <c r="F6">
-        <v>27.70960966763426</v>
+        <v>26.37813221858672</v>
       </c>
       <c r="G6">
-        <v>33.97225311971564</v>
+        <v>31.55863817230223</v>
       </c>
       <c r="I6">
-        <v>3.86057804146117</v>
+        <v>3.598965412355236</v>
       </c>
       <c r="J6">
-        <v>11.9438973721879</v>
+        <v>11.49741247073878</v>
       </c>
       <c r="K6">
-        <v>18.35106072927072</v>
+        <v>17.13673934670059</v>
       </c>
       <c r="L6">
-        <v>6.350401881025128</v>
+        <v>14.01214679957699</v>
       </c>
       <c r="M6">
-        <v>10.65991104117407</v>
+        <v>11.43980901979422</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.310901963894685</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.83002052785812</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -671,49 +701,55 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.62907254905455</v>
+        <v>11.63778135686814</v>
       </c>
       <c r="C7">
-        <v>8.08086553998276</v>
+        <v>8.586440242338327</v>
       </c>
       <c r="D7">
-        <v>5.933189613666182</v>
+        <v>6.259983607688372</v>
       </c>
       <c r="E7">
-        <v>9.784670571527911</v>
+        <v>9.936040961640213</v>
       </c>
       <c r="F7">
-        <v>27.84340485092807</v>
+        <v>26.44742056514779</v>
       </c>
       <c r="G7">
-        <v>34.13644318120901</v>
+        <v>31.68487871616844</v>
       </c>
       <c r="I7">
-        <v>3.795922684373899</v>
+        <v>3.544555598158673</v>
       </c>
       <c r="J7">
-        <v>11.94332823008148</v>
+        <v>11.45641103501109</v>
       </c>
       <c r="K7">
-        <v>18.34357895085713</v>
+        <v>17.09021252903609</v>
       </c>
       <c r="L7">
-        <v>6.379171703028859</v>
+        <v>13.95769877212303</v>
       </c>
       <c r="M7">
-        <v>10.90208600031718</v>
+        <v>11.40782515895817</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.338550959695066</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.07335008764988</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -721,49 +757,55 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.75571447537122</v>
+        <v>12.71872200722859</v>
       </c>
       <c r="C8">
-        <v>8.914613380721557</v>
+        <v>9.530163815052033</v>
       </c>
       <c r="D8">
-        <v>6.36271399244792</v>
+        <v>6.753603793677325</v>
       </c>
       <c r="E8">
-        <v>10.37135586301065</v>
+        <v>10.55257630163032</v>
       </c>
       <c r="F8">
-        <v>28.50014986132724</v>
+        <v>26.8709435193479</v>
       </c>
       <c r="G8">
-        <v>34.9658075463885</v>
+        <v>32.23370083415259</v>
       </c>
       <c r="I8">
-        <v>3.513313493804338</v>
+        <v>3.303250017763566</v>
       </c>
       <c r="J8">
-        <v>11.96510067765637</v>
+        <v>11.38955970274963</v>
       </c>
       <c r="K8">
-        <v>18.35482577058953</v>
+        <v>16.95093052760038</v>
       </c>
       <c r="L8">
-        <v>6.512853748478276</v>
+        <v>13.76944490748411</v>
       </c>
       <c r="M8">
-        <v>11.9087838179557</v>
+        <v>11.34476514043948</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.468245560292329</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.08947366285199</v>
       </c>
       <c r="P8">
         <v>0</v>
@@ -771,49 +813,55 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.72580426909933</v>
+        <v>14.60504687095633</v>
       </c>
       <c r="C9">
-        <v>10.36639754211669</v>
+        <v>11.20307827250329</v>
       </c>
       <c r="D9">
-        <v>7.142279282598264</v>
+        <v>7.623992361540914</v>
       </c>
       <c r="E9">
-        <v>11.47667936307701</v>
+        <v>11.69954815284537</v>
       </c>
       <c r="F9">
-        <v>29.93584739995729</v>
+        <v>27.93680945993838</v>
       </c>
       <c r="G9">
-        <v>36.8126665968679</v>
+        <v>33.36660229641095</v>
       </c>
       <c r="I9">
-        <v>2.983829556539755</v>
+        <v>2.847395074376247</v>
       </c>
       <c r="J9">
-        <v>12.07032084025736</v>
+        <v>11.45600908731706</v>
       </c>
       <c r="K9">
-        <v>18.47933851525189</v>
+        <v>16.80855901661949</v>
       </c>
       <c r="L9">
-        <v>6.79627690964662</v>
+        <v>13.4770106493108</v>
       </c>
       <c r="M9">
-        <v>13.67158593277715</v>
+        <v>11.4532275307302</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.744887973958723</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>13.87464658358384</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -821,49 +869,55 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.01968635386723</v>
+        <v>15.85023678821225</v>
       </c>
       <c r="C10">
-        <v>11.36836350599517</v>
+        <v>12.30734517726491</v>
       </c>
       <c r="D10">
-        <v>7.691929977456416</v>
+        <v>8.268698637227612</v>
       </c>
       <c r="E10">
-        <v>12.26274967311976</v>
+        <v>12.52774263576344</v>
       </c>
       <c r="F10">
-        <v>31.00232928243093</v>
+        <v>28.59673859758787</v>
       </c>
       <c r="G10">
-        <v>38.16901573364835</v>
+        <v>34.55132572913524</v>
       </c>
       <c r="I10">
-        <v>2.623704914389467</v>
+        <v>2.544689241017094</v>
       </c>
       <c r="J10">
-        <v>12.16284870115832</v>
+        <v>11.25362286292272</v>
       </c>
       <c r="K10">
-        <v>18.58041892703464</v>
+        <v>16.63026673523351</v>
       </c>
       <c r="L10">
-        <v>7.014849840468895</v>
+        <v>13.18902338142051</v>
       </c>
       <c r="M10">
-        <v>14.8469739126638</v>
+        <v>11.55813894451806</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.954338460086808</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.05368453788865</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -871,49 +925,55 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.56738608833578</v>
+        <v>16.38857535991264</v>
       </c>
       <c r="C11">
-        <v>11.84541034113606</v>
+        <v>12.75721163167078</v>
       </c>
       <c r="D11">
-        <v>7.951871212914028</v>
+        <v>8.628103435075582</v>
       </c>
       <c r="E11">
-        <v>12.62058343044287</v>
+        <v>12.92967830960689</v>
       </c>
       <c r="F11">
-        <v>31.42408946434892</v>
+        <v>28.59898799340299</v>
       </c>
       <c r="G11">
-        <v>38.67102167839772</v>
+        <v>35.53674772251865</v>
       </c>
       <c r="I11">
-        <v>2.520231473813901</v>
+        <v>2.581005482625972</v>
       </c>
       <c r="J11">
-        <v>12.18546179667411</v>
+        <v>10.72392686758836</v>
       </c>
       <c r="K11">
-        <v>18.5769105661621</v>
+        <v>16.37093714360585</v>
       </c>
       <c r="L11">
-        <v>7.114747685138917</v>
+        <v>12.93185335421455</v>
       </c>
       <c r="M11">
-        <v>15.36226813575559</v>
+        <v>11.47464445700594</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.044003099366505</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.55380792919044</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -921,49 +981,55 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.77512675112938</v>
+        <v>16.59380445203893</v>
       </c>
       <c r="C12">
-        <v>12.00281543353637</v>
+        <v>12.89721027928085</v>
       </c>
       <c r="D12">
-        <v>8.039993527548472</v>
+        <v>8.761186820844506</v>
       </c>
       <c r="E12">
-        <v>12.75079846810755</v>
+        <v>13.0798347852472</v>
       </c>
       <c r="F12">
-        <v>31.62273995820858</v>
+        <v>28.60582031515186</v>
       </c>
       <c r="G12">
-        <v>38.92889640821664</v>
+        <v>36.04216100960374</v>
       </c>
       <c r="I12">
-        <v>2.579369158054267</v>
+        <v>2.628787371294674</v>
       </c>
       <c r="J12">
-        <v>12.2082126911392</v>
+        <v>10.49118208348548</v>
       </c>
       <c r="K12">
-        <v>18.60657159947309</v>
+        <v>16.28162676202159</v>
       </c>
       <c r="L12">
-        <v>7.153810383295325</v>
+        <v>12.84174211527151</v>
       </c>
       <c r="M12">
-        <v>15.54998596401603</v>
+        <v>11.45153988472764</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.078326310815429</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.73419034906175</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -971,49 +1037,55 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.73154516205759</v>
+        <v>16.5506193388706</v>
       </c>
       <c r="C13">
-        <v>11.96494264949239</v>
+        <v>12.86363404315221</v>
       </c>
       <c r="D13">
-        <v>8.01924695141912</v>
+        <v>8.730619073584474</v>
       </c>
       <c r="E13">
-        <v>12.72198999384567</v>
+        <v>13.04667031311936</v>
       </c>
       <c r="F13">
-        <v>31.58744493923181</v>
+        <v>28.61240419138368</v>
       </c>
       <c r="G13">
-        <v>38.88650297686038</v>
+        <v>35.94216108651256</v>
       </c>
       <c r="I13">
-        <v>2.56590236373868</v>
+        <v>2.617547140775716</v>
       </c>
       <c r="J13">
-        <v>12.20594613877842</v>
+        <v>10.54508172281617</v>
       </c>
       <c r="K13">
-        <v>18.60613566543721</v>
+        <v>16.30656720317555</v>
       </c>
       <c r="L13">
-        <v>7.145569680092755</v>
+        <v>12.86502971499143</v>
       </c>
       <c r="M13">
-        <v>15.5089996594685</v>
+        <v>11.46119602470547</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.071125582162743</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.69490965571351</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -1021,49 +1093,55 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.58497775770894</v>
+        <v>16.40589727267065</v>
       </c>
       <c r="C14">
-        <v>11.85665950076828</v>
+        <v>12.7672713550552</v>
       </c>
       <c r="D14">
-        <v>7.958365196462634</v>
+        <v>8.638230597909937</v>
       </c>
       <c r="E14">
-        <v>12.63097015561786</v>
+        <v>12.94167643761407</v>
       </c>
       <c r="F14">
-        <v>31.44362656142287</v>
+        <v>28.60301843372591</v>
       </c>
       <c r="G14">
-        <v>38.69784572039002</v>
+        <v>35.58202780461636</v>
       </c>
       <c r="I14">
-        <v>2.524771958849531</v>
+        <v>2.584518720657587</v>
       </c>
       <c r="J14">
-        <v>12.18845313879173</v>
+        <v>10.70646844993167</v>
       </c>
       <c r="K14">
-        <v>18.5818814759482</v>
+        <v>16.36604132522683</v>
       </c>
       <c r="L14">
-        <v>7.118034411237381</v>
+        <v>12.92611754576842</v>
       </c>
       <c r="M14">
-        <v>15.37747655116801</v>
+        <v>11.4747452048594</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>7.046908954012472</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>15.56846875952957</v>
       </c>
       <c r="P14">
         <v>0</v>
@@ -1071,49 +1149,55 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.49269619566678</v>
+        <v>16.3150931842148</v>
       </c>
       <c r="C15">
-        <v>11.79820264765503</v>
+        <v>12.71468902276649</v>
       </c>
       <c r="D15">
-        <v>7.924566323233667</v>
+        <v>8.585679644826563</v>
       </c>
       <c r="E15">
-        <v>12.57669988529909</v>
+        <v>12.87908932308621</v>
       </c>
       <c r="F15">
-        <v>31.34069853916951</v>
+        <v>28.5800641019931</v>
       </c>
       <c r="G15">
-        <v>38.55621420420526</v>
+        <v>35.34689084532071</v>
       </c>
       <c r="I15">
-        <v>2.508656471514801</v>
+        <v>2.566317599983168</v>
       </c>
       <c r="J15">
-        <v>12.17257153540818</v>
+        <v>10.79580091941409</v>
       </c>
       <c r="K15">
-        <v>18.55532017131555</v>
+        <v>16.39045475720314</v>
       </c>
       <c r="L15">
-        <v>7.100839941247185</v>
+        <v>12.95529700631256</v>
       </c>
       <c r="M15">
-        <v>15.29787859182624</v>
+        <v>11.47331201911003</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>7.031675808115715</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>15.49165549816476</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1121,49 +1205,55 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.96677766673098</v>
+        <v>15.79949813263497</v>
       </c>
       <c r="C16">
-        <v>11.40743979516217</v>
+        <v>12.34379245031246</v>
       </c>
       <c r="D16">
-        <v>7.706047551966404</v>
+        <v>8.274645706943232</v>
       </c>
       <c r="E16">
-        <v>12.25323982813776</v>
+        <v>12.51460555984691</v>
       </c>
       <c r="F16">
-        <v>30.84736318560629</v>
+        <v>28.47748286771535</v>
       </c>
       <c r="G16">
-        <v>37.91265340235849</v>
+        <v>34.29272733258033</v>
       </c>
       <c r="I16">
-        <v>2.663946587021187</v>
+        <v>2.588127369003581</v>
       </c>
       <c r="J16">
-        <v>12.11680262276681</v>
+        <v>11.24450069242826</v>
       </c>
       <c r="K16">
-        <v>18.48056432308262</v>
+        <v>16.56068767507416</v>
       </c>
       <c r="L16">
-        <v>7.005243998393963</v>
+        <v>13.14445548939054</v>
       </c>
       <c r="M16">
-        <v>14.82523926125504</v>
+        <v>11.4934890125435</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.945562135017807</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>15.03187093273544</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1171,49 +1261,55 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.6359529362539</v>
+        <v>15.47753850378434</v>
       </c>
       <c r="C17">
-        <v>11.16372305620383</v>
+        <v>12.09756279263672</v>
       </c>
       <c r="D17">
-        <v>7.570236316602785</v>
+        <v>8.093755890895336</v>
       </c>
       <c r="E17">
-        <v>12.05289515820445</v>
+        <v>12.29427117626581</v>
       </c>
       <c r="F17">
-        <v>30.54660036661915</v>
+        <v>28.36542469657533</v>
       </c>
       <c r="G17">
-        <v>37.52015620503769</v>
+        <v>33.7682456511063</v>
       </c>
       <c r="I17">
-        <v>2.760559167543538</v>
+        <v>2.668744626922232</v>
       </c>
       <c r="J17">
-        <v>12.08417186726909</v>
+        <v>11.43513121803801</v>
       </c>
       <c r="K17">
-        <v>18.4367973918792</v>
+        <v>16.63733563259017</v>
       </c>
       <c r="L17">
-        <v>6.947158827542466</v>
+        <v>13.2412792449779</v>
       </c>
       <c r="M17">
-        <v>14.52865638770331</v>
+        <v>11.48644040461637</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.891946551480244</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.73982030866821</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1221,49 +1317,55 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.44777867660717</v>
+        <v>15.29496810865691</v>
       </c>
       <c r="C18">
-        <v>10.99992323679915</v>
+        <v>11.92785717005295</v>
       </c>
       <c r="D18">
-        <v>7.481740853092887</v>
+        <v>7.984437171106588</v>
       </c>
       <c r="E18">
-        <v>11.9326100898272</v>
+        <v>12.16475053489429</v>
       </c>
       <c r="F18">
-        <v>30.41354174263836</v>
+        <v>28.31883542849521</v>
       </c>
       <c r="G18">
-        <v>37.36410286349311</v>
+        <v>33.57217646805153</v>
       </c>
       <c r="I18">
-        <v>2.806591701969935</v>
+        <v>2.704132660872559</v>
       </c>
       <c r="J18">
-        <v>12.07956605583461</v>
+        <v>11.52436202148901</v>
       </c>
       <c r="K18">
-        <v>18.44280109648999</v>
+        <v>16.69734005154722</v>
       </c>
       <c r="L18">
-        <v>6.914915496619903</v>
+        <v>13.30856029420106</v>
       </c>
       <c r="M18">
-        <v>14.35172322787548</v>
+        <v>11.49639027707187</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.861714599303384</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.56449900229008</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1271,49 +1373,55 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.37959354779981</v>
+        <v>15.22916325802362</v>
       </c>
       <c r="C19">
-        <v>10.96123696802043</v>
+        <v>11.88544272731848</v>
       </c>
       <c r="D19">
-        <v>7.459171473846718</v>
+        <v>7.954938963367273</v>
       </c>
       <c r="E19">
-        <v>11.895134154368</v>
+        <v>12.12419991493238</v>
       </c>
       <c r="F19">
-        <v>30.33840345547126</v>
+        <v>28.27274261945077</v>
       </c>
       <c r="G19">
-        <v>37.25839742967093</v>
+        <v>33.46488067172146</v>
       </c>
       <c r="I19">
-        <v>2.82993092515926</v>
+        <v>2.725337214107357</v>
       </c>
       <c r="J19">
-        <v>12.06762103234935</v>
+        <v>11.53993320910699</v>
       </c>
       <c r="K19">
-        <v>18.42149380034963</v>
+        <v>16.69612675016223</v>
       </c>
       <c r="L19">
-        <v>6.903298793849108</v>
+        <v>13.31569796534472</v>
       </c>
       <c r="M19">
-        <v>14.29439329685749</v>
+        <v>11.4827818185436</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.850760652448789</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.50730127458437</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1321,49 +1429,55 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.67188084391032</v>
+        <v>15.51239409814631</v>
       </c>
       <c r="C20">
-        <v>11.18810632743624</v>
+        <v>12.12285807605327</v>
       </c>
       <c r="D20">
-        <v>7.584003431681944</v>
+        <v>8.11193901163945</v>
       </c>
       <c r="E20">
-        <v>12.0739538255466</v>
+        <v>12.31728840901333</v>
       </c>
       <c r="F20">
-        <v>30.58160226146881</v>
+        <v>28.38195409378347</v>
       </c>
       <c r="G20">
-        <v>37.56721498525894</v>
+        <v>33.82445124478721</v>
       </c>
       <c r="I20">
-        <v>2.749419335911942</v>
+        <v>2.659120259407457</v>
       </c>
       <c r="J20">
-        <v>12.0886506749403</v>
+        <v>11.41907191649445</v>
       </c>
       <c r="K20">
-        <v>18.44376158294554</v>
+        <v>16.6322185387972</v>
       </c>
       <c r="L20">
-        <v>6.95339509124283</v>
+        <v>13.23315880728189</v>
       </c>
       <c r="M20">
-        <v>14.56017927991439</v>
+        <v>11.48950669328455</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.897750603717054</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>14.77100976115669</v>
       </c>
       <c r="P20">
         <v>0</v>
@@ -1371,49 +1485,55 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.62276516714032</v>
+        <v>16.44752343069714</v>
       </c>
       <c r="C21">
-        <v>11.91147941071767</v>
+        <v>12.79325273623982</v>
       </c>
       <c r="D21">
-        <v>7.986487894761971</v>
+        <v>8.695926559741746</v>
       </c>
       <c r="E21">
-        <v>12.66232409893971</v>
+        <v>12.98626309775985</v>
       </c>
       <c r="F21">
-        <v>31.44353864828966</v>
+        <v>28.48174620890076</v>
       </c>
       <c r="G21">
-        <v>38.67908405974775</v>
+        <v>35.81118515441612</v>
       </c>
       <c r="I21">
-        <v>2.5414302188355</v>
+        <v>2.598452335468227</v>
       </c>
       <c r="J21">
-        <v>12.17858110054904</v>
+        <v>10.50674548685748</v>
       </c>
       <c r="K21">
-        <v>18.55533268998895</v>
+        <v>16.27313660253998</v>
       </c>
       <c r="L21">
-        <v>7.125072775697467</v>
+        <v>12.85612054064066</v>
       </c>
       <c r="M21">
-        <v>15.42027691549012</v>
+        <v>11.40819179045431</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.05092557732142</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.60399693627646</v>
       </c>
       <c r="P21">
         <v>0</v>
@@ -1421,49 +1541,55 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.22446013567544</v>
+        <v>17.04019186024122</v>
       </c>
       <c r="C22">
-        <v>12.34222632202963</v>
+        <v>13.1843070190599</v>
       </c>
       <c r="D22">
-        <v>8.230698919479169</v>
+        <v>9.062546724013556</v>
       </c>
       <c r="E22">
-        <v>13.03453689285627</v>
+        <v>13.41266758846556</v>
       </c>
       <c r="F22">
-        <v>32.06641710263508</v>
+        <v>28.57344713308549</v>
       </c>
       <c r="G22">
-        <v>39.50704393357801</v>
+        <v>37.29522579006122</v>
       </c>
       <c r="I22">
-        <v>2.708601958068701</v>
+        <v>2.732303139199882</v>
       </c>
       <c r="J22">
-        <v>12.26171114006416</v>
+        <v>9.916411144316459</v>
       </c>
       <c r="K22">
-        <v>18.67804464789354</v>
+        <v>16.05855030237779</v>
       </c>
       <c r="L22">
-        <v>7.240374632060556</v>
+        <v>12.6274476903567</v>
       </c>
       <c r="M22">
-        <v>15.95568320089857</v>
+        <v>11.38071009919475</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>7.152999507267402</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.12061510801053</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -1471,49 +1597,55 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.91217474266175</v>
+        <v>16.72928426660545</v>
       </c>
       <c r="C23">
-        <v>12.08613590760958</v>
+        <v>12.96794236845059</v>
       </c>
       <c r="D23">
-        <v>8.088715109683395</v>
+        <v>8.841398894818251</v>
       </c>
       <c r="E23">
-        <v>12.83101482162962</v>
+        <v>13.17402104961284</v>
       </c>
       <c r="F23">
-        <v>31.78417893509077</v>
+        <v>28.63187444995032</v>
       </c>
       <c r="G23">
-        <v>39.15338088221532</v>
+        <v>36.44180510342503</v>
       </c>
       <c r="I23">
-        <v>2.614543201160425</v>
+        <v>2.655526099408121</v>
       </c>
       <c r="J23">
-        <v>12.23487353469685</v>
+        <v>10.33888166227056</v>
       </c>
       <c r="K23">
-        <v>18.65238779384185</v>
+        <v>16.24108780767962</v>
       </c>
       <c r="L23">
-        <v>7.17992759081557</v>
+        <v>12.7955186850318</v>
       </c>
       <c r="M23">
-        <v>15.66703242113288</v>
+        <v>11.45128551071854</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>7.101088771292154</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.84620618592415</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -1521,49 +1653,55 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.66639436992977</v>
+        <v>15.50650676761307</v>
       </c>
       <c r="C24">
-        <v>11.13086781049535</v>
+        <v>12.06734765010944</v>
       </c>
       <c r="D24">
-        <v>7.557385996285833</v>
+        <v>8.084994455715591</v>
       </c>
       <c r="E24">
-        <v>12.05528356208237</v>
+        <v>12.29847554414582</v>
       </c>
       <c r="F24">
-        <v>30.64829495083211</v>
+        <v>28.44916502303725</v>
       </c>
       <c r="G24">
-        <v>37.69073565995821</v>
+        <v>33.93053689047118</v>
       </c>
       <c r="I24">
-        <v>2.733991502001271</v>
+        <v>2.63934083502352</v>
       </c>
       <c r="J24">
-        <v>12.11534820567041</v>
+        <v>11.45105212489488</v>
       </c>
       <c r="K24">
-        <v>18.50496434288862</v>
+        <v>16.68895873367299</v>
       </c>
       <c r="L24">
-        <v>6.952588465225418</v>
+        <v>13.27603548779626</v>
       </c>
       <c r="M24">
-        <v>14.53778992572026</v>
+        <v>11.53189310659412</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.896969728862182</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>14.749308789289</v>
       </c>
       <c r="P24">
         <v>0</v>
@@ -1571,54 +1709,66 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.20819930422888</v>
+        <v>14.10813463736706</v>
       </c>
       <c r="C25">
-        <v>10.03651386556521</v>
+        <v>10.82551478805375</v>
       </c>
       <c r="D25">
-        <v>6.957542748802149</v>
+        <v>7.404600312648276</v>
       </c>
       <c r="E25">
-        <v>11.1917833045823</v>
+        <v>11.39907956583831</v>
       </c>
       <c r="F25">
-        <v>29.45791909247379</v>
+        <v>27.6022575198585</v>
       </c>
       <c r="G25">
-        <v>36.15960872081925</v>
+        <v>32.83727923714486</v>
       </c>
       <c r="I25">
-        <v>3.139938988734929</v>
+        <v>2.985867123939306</v>
       </c>
       <c r="J25">
-        <v>12.00966034387272</v>
+        <v>11.4750399928798</v>
       </c>
       <c r="K25">
-        <v>18.3778164207088</v>
+        <v>16.80951044583741</v>
       </c>
       <c r="L25">
-        <v>6.715623956356147</v>
+        <v>13.53105358862813</v>
       </c>
       <c r="M25">
-        <v>13.22480729982397</v>
+        <v>11.37997405003628</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.667225018761497</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.42428248827302</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
